--- a/data/trans_camb/P19_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19_1_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,55</t>
+          <t>20,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-12,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>25,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,54</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,3</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,13</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9,14</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,08; 23,21</t>
+          <t>-13,61; 43,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -0,04</t>
+          <t>2,18; 52,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 26,2</t>
+          <t>-54,14; 21,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,91; 8,26</t>
+          <t>6,55; 56,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 6,27</t>
+          <t>-20,05; 13,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 1,33</t>
+          <t>-12,45; 18,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 11,24</t>
+          <t>-12,48; 20,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,33; 1,07</t>
+          <t>-21,41; 15,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 10,49</t>
+          <t>-11,78; 23,11</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,24; 29,81</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-31,15; 15,39</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 27,98</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-46,51%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>-18,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,12%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-38,76%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-31,36%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-19,92%</t>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-5,45%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12,06%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-57,54; 140,96</t>
+          <t>-16,72; 106,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-80,5; 3,56</t>
+          <t>2,82; 142,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,68; 180,55</t>
+          <t>-63,79; 31,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,03; 51,21</t>
+          <t>7,48; 143,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,71; 38,56</t>
+          <t>-22,58; 18,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,74; 9,6</t>
+          <t>-14,13; 25,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 64,99</t>
+          <t>-13,67; 28,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,9; 7,99</t>
+          <t>-25,1; 20,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-55,25; 67,43</t>
+          <t>-14,25; 36,68</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 49,25</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-37,99; 22,29</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 44,47</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-8,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-4,48</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 9,04</t>
+          <t>-16,48; -0,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 4,12</t>
+          <t>-8,51; 5,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 7,92</t>
+          <t>-20,06; 2,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 7,59</t>
+          <t>-11,04; 4,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 3,88</t>
+          <t>-9,01; 7,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 6,42</t>
+          <t>-6,64; 9,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 6,22</t>
+          <t>-6,14; 10,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 1,89</t>
+          <t>3,41; 18,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 4,91</t>
+          <t>-10,2; 1,82</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 5,44</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-10,71; 3,83</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 9,46</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>-9,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-15,71%</t>
+          <t>-1,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,38%</t>
+          <t>-7,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>-3,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,43%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,33%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>-5,34%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-2,73%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 77,02</t>
+          <t>-17,87; -0,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 34,46</t>
+          <t>-9,34; 6,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,58; 64,98</t>
+          <t>-21,76; 2,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 51,13</t>
+          <t>-12,01; 5,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 26,29</t>
+          <t>-10,89; 9,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 41,27</t>
+          <t>-8,04; 12,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 42,76</t>
+          <t>-7,38; 14,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,86; 13,04</t>
+          <t>4,2; 24,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,24; 33,56</t>
+          <t>-11,79; 2,31</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-6,85; 6,77</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-12,34; 4,74</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 11,7</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,16</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,74</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,97</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>13,67</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,07</t>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,73</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,69</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 3,75</t>
+          <t>-8,07; 10,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 2,46</t>
+          <t>-9,54; 8,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 1,05</t>
+          <t>-5,6; 12,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,1; -3,14</t>
+          <t>-2,17; 14,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 5,69</t>
+          <t>1,66; 19,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,52; -6,09</t>
+          <t>-6,57; 12,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,25; -1,89</t>
+          <t>2,64; 20,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 2,23</t>
+          <t>5,12; 21,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-15,03; -4,84</t>
+          <t>1,03; 12,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-5,09; 8,68</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 14,16</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 16,37</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,79%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-24,45%</t>
+          <t>-0,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-31,93%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-37,1%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-49,59%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-31,23%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-14,24%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-42,27%</t>
+          <t>8,5%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>13,62%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,24; 21,39</t>
+          <t>-9,12; 13,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,44; 15,27</t>
+          <t>-11,11; 10,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,27; 7,22</t>
+          <t>-6,29; 15,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,56; -14,41</t>
+          <t>-2,47; 19,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 24,07</t>
+          <t>2,12; 28,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,47; -26,15</t>
+          <t>-8,49; 16,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-47,41; -9,24</t>
+          <t>3,41; 29,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,42; 10,57</t>
+          <t>6,42; 31,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-56,26; -20,64</t>
+          <t>1,32; 17,26</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-6,03; 11,59</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 19,06</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6,04; 22,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,51</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 5,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -0,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 3,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 1,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,99; -2,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 1,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,99; -0,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,93; -0,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-26,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-11,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-28,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-22,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 31,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,58; -2,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 23,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,11; 5,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,08; 8,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-46,28; -10,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 9,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,09; -0,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-36,1; -3,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,13</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4,42</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6,15</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9,74</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; 5,51</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 10,33</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; 4,8</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 12,9</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,42; 9,14</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 8,27</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 12,83</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 15,28</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 5,35</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 7,08</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 6,26</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 11,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-2,62%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-4,9%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>12,59%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-9,46; 6,86</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 13,1</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-16,71; 5,75</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 16,41</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 12,49</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 11,19</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 17,57</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5,21; 20,75</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 6,88</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 9,2</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 7,96</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>4,01; 15,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
